--- a/nbe QandA ar and en.xlsx
+++ b/nbe QandA ar and en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\sherif\to Sama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\test node fetch endpoitn\Interpreting retail current accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1458">
   <si>
     <t>Al Ahly Net/Al Ahly Mobile for Corporates</t>
   </si>
@@ -4452,6 +4452,798 @@
   </si>
   <si>
     <t>answerAR</t>
+  </si>
+  <si>
+    <t>Can the card be used for online purchases?</t>
+  </si>
+  <si>
+    <t>What are the card issuance fees?</t>
+  </si>
+  <si>
+    <t>What are the card renewal fees?</t>
+  </si>
+  <si>
+    <t>Is it possible to receive foreign transfers on the card?</t>
+  </si>
+  <si>
+    <t>What is the daily maximum withdrawal from the card?</t>
+  </si>
+  <si>
+    <t>What is the fee for withdrawing cash from our bank machines?</t>
+  </si>
+  <si>
+    <t>What is the fee for withdrawing cash from local bank machines?</t>
+  </si>
+  <si>
+    <t>What is the validity period of the card?</t>
+  </si>
+  <si>
+    <t>Is a text message sent when using a prepaid card?</t>
+  </si>
+  <si>
+    <t>Can a prepaid card be issued to foreigners?</t>
+  </si>
+  <si>
+    <t>What are direct debit cards?</t>
+  </si>
+  <si>
+    <t>What are the types of direct debit cards that are issued to individual customers?</t>
+  </si>
+  <si>
+    <t>How can I obtain a direct debit card?</t>
+  </si>
+  <si>
+    <t>What are the ways to receive the card after issuance?</t>
+  </si>
+  <si>
+    <t>Is it possible to obtain an additional card?</t>
+  </si>
+  <si>
+    <t>Is it possible to transfer between accounts through a debit card?</t>
+  </si>
+  <si>
+    <t>Can a credit card be paid with a direct debit card?</t>
+  </si>
+  <si>
+    <t>Can a debit card be used for government payments?</t>
+  </si>
+  <si>
+    <t>Can a debit card be linked to a phone cash wallet?</t>
+  </si>
+  <si>
+    <t>Is a text message sent when using the discount card?</t>
+  </si>
+  <si>
+    <t>To whom is the corporate direct debit card issued?</t>
+  </si>
+  <si>
+    <t>How can I get a corporate direct debit card?</t>
+  </si>
+  <si>
+    <t>What is the daily limit for card purchases?</t>
+  </si>
+  <si>
+    <t>What is the fee for balance inquiry from local bank machines?</t>
+  </si>
+  <si>
+    <t>How can I obtain a corporate credit card?</t>
+  </si>
+  <si>
+    <t>What is the minimum amount required to pay the card?</t>
+  </si>
+  <si>
+    <t>Is interest calculated in case of paying the minimum amount?</t>
+  </si>
+  <si>
+    <t>What are the ways to pay credit cards?</t>
+  </si>
+  <si>
+    <t>Is it possible to pay installments through the merchant directly?</t>
+  </si>
+  <si>
+    <t>Is it possible to install a transaction that was completed by a merchant who is not contracted with the National Bank?</t>
+  </si>
+  <si>
+    <t>What are the ways to find out the debt owed on the card?</t>
+  </si>
+  <si>
+    <t>What are the fees for issuing a replacement for the lost or damaged one?</t>
+  </si>
+  <si>
+    <t>What are the fees for exceeding the credit limit?</t>
+  </si>
+  <si>
+    <t>What are the late fees?</t>
+  </si>
+  <si>
+    <t>What is the maximum credit limit for the card?</t>
+  </si>
+  <si>
+    <t>What is the grace period for the card?</t>
+  </si>
+  <si>
+    <t>trnaslatedARQuery</t>
+  </si>
+  <si>
+    <t>How can I subscribe to the corporate electronic payment service?</t>
+  </si>
+  <si>
+    <t>What are the documents required to subscribe to the service?</t>
+  </si>
+  <si>
+    <t>Data that must be filled in the subscription form</t>
+  </si>
+  <si>
+    <t>What are the advantages that the merchant gets from subscribing to Al-Ahly Shopping service?</t>
+  </si>
+  <si>
+    <t>What are the latest electronic collection services provided by the National Bank of Egypt?</t>
+  </si>
+  <si>
+    <t>What is the minimum amount to open an account?</t>
+  </si>
+  <si>
+    <t>Is it possible to issue a check book for the current account?</t>
+  </si>
+  <si>
+    <t>What are the durations of certificates in local currency available at the National Bank of Egypt??</t>
+  </si>
+  <si>
+    <t>Is it possible to open an account in a foreign currency?</t>
+  </si>
+  <si>
+    <t>Can I work for a week?</t>
+  </si>
+  <si>
+    <t>Can I retrieve the certificate at any time?</t>
+  </si>
+  <si>
+    <t>What are the durations of certificates in foreign currency available at the National Bank of Egypt??</t>
+  </si>
+  <si>
+    <t>Is it possible to borrow with the guarantee of certificates/deposits of the National Bank of Egypt?</t>
+  </si>
+  <si>
+    <t>Can I choose to receive a paper account statement and an account statement via e-mail?</t>
+  </si>
+  <si>
+    <t>Can I open a pension savings account while I still have the strength of my company?</t>
+  </si>
+  <si>
+    <t>Is it possible to open an account for foreigners?</t>
+  </si>
+  <si>
+    <t>Is it possible to open a joint account?</t>
+  </si>
+  <si>
+    <t>Can a student under 21 years old open an account?</t>
+  </si>
+  <si>
+    <t>Can a card be issued on the account?</t>
+  </si>
+  <si>
+    <t>Is there a maximum limit for opening accounts?</t>
+  </si>
+  <si>
+    <t>Are there prize draws on accounts?</t>
+  </si>
+  <si>
+    <t>Is there an alternative to the paper account statement or cancellation?</t>
+  </si>
+  <si>
+    <t>How can I obtain a housing unit in the real estate financing initiative?</t>
+  </si>
+  <si>
+    <t>What are the specifications of the bankable housing units?</t>
+  </si>
+  <si>
+    <t>How to borrow with the guarantee of new platinum certificates with a monthly return of 18%?</t>
+  </si>
+  <si>
+    <t>What is the maximum financing term for a car loan?</t>
+  </si>
+  <si>
+    <t>How can I subscribe to AlAhli Platinum service?</t>
+  </si>
+  <si>
+    <t>How to qualify for Platinum status?</t>
+  </si>
+  <si>
+    <t>How to qualify for the Platinum Plus tier?</t>
+  </si>
+  <si>
+    <t>How to qualify for Platinum Elite?</t>
+  </si>
+  <si>
+    <t>How to subscribe to roadside assistance services?</t>
+  </si>
+  <si>
+    <t>How to subscribe to concierge services?</t>
+  </si>
+  <si>
+    <t>What are the criteria for classifying customers at the bank?</t>
+  </si>
+  <si>
+    <t>What are the subscription fees for the service? And when are fees applied to the service?</t>
+  </si>
+  <si>
+    <t>How to exit the service?</t>
+  </si>
+  <si>
+    <t>What is the AL-AHLY Points Program?</t>
+  </si>
+  <si>
+    <t>How can I register for the AL-AHLY Points Program?</t>
+  </si>
+  <si>
+    <t>HOW TO EARN AL-AHLY POINTS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Are there any membership fees to register for the program?</t>
+  </si>
+  <si>
+    <t>What are the products of the National Bank that grant AL-AHLY Points?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is there an expiry date for AL-AHLY Points?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can I track my AL-AHLY Points balance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can AlAhli points be exchanged for electronic vouchers?</t>
+  </si>
+  <si>
+    <t>Can vouchers be exchanged for cash?</t>
+  </si>
+  <si>
+    <t>What are the categories of vouchers that can be redeemed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How are electronic vouchers received?</t>
+  </si>
+  <si>
+    <t>How are electronic vouchers used by merchants?</t>
+  </si>
+  <si>
+    <t>How are points redeemed for traveling around the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How are points redeemed for mobile phone recharge?</t>
+  </si>
+  <si>
+    <t>How are points redeemed for Cash Rewards?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What are the values of Cash Rewards that can be redeemed?</t>
+  </si>
+  <si>
+    <t>How long does it take to redeem the Cash Reward on the credit card?</t>
+  </si>
+  <si>
+    <t>What is personal finance?</t>
+  </si>
+  <si>
+    <t>What are the terms and conditions for a personal loan?</t>
+  </si>
+  <si>
+    <t>What are the grant conditions and documents required to apply for personal finance?</t>
+  </si>
+  <si>
+    <t>How is the return on personal finance calculated?</t>
+  </si>
+  <si>
+    <t>How can I apply for personal finance?</t>
+  </si>
+  <si>
+    <t>What documents do I need to provide as part of my cash financing application?</t>
+  </si>
+  <si>
+    <t>Is salary transfer to the bank mandatory to obtain personal finance?</t>
+  </si>
+  <si>
+    <t>What is the minimum age for a personal loan?</t>
+  </si>
+  <si>
+    <t>What is the maximum age when financing is due?</t>
+  </si>
+  <si>
+    <t>Is there insurance coverage available for cash personal finance?</t>
+  </si>
+  <si>
+    <t>You just joined my company. Is there a minimum service limit for obtaining personal financing?</t>
+  </si>
+  <si>
+    <t>What is the maximum repayment period for cash financing?</t>
+  </si>
+  <si>
+    <t>What is the maximum financing amount?</t>
+  </si>
+  <si>
+    <t>Can I increase my existing loan or obtain more than one financing?</t>
+  </si>
+  <si>
+    <t>How can I pay the financing installments after obtaining it?</t>
+  </si>
+  <si>
+    <t>Can I repay the financing before the end of its contracted term at the time of the grant?</t>
+  </si>
+  <si>
+    <t>How can I subscribe to Al Ahly Phone Cash wallet?</t>
+  </si>
+  <si>
+    <t>How can I get the Al-Ahly Phone Cash service password for the first time?</t>
+  </si>
+  <si>
+    <t>How can I reset the password?</t>
+  </si>
+  <si>
+    <t>How can I change the password?</t>
+  </si>
+  <si>
+    <t>What if I entered the wrong password more than once?</t>
+  </si>
+  <si>
+    <t>What if I change my mobile phone number?</t>
+  </si>
+  <si>
+    <t>What if I change the mobile phone device?</t>
+  </si>
+  <si>
+    <t>What if the mobile SIM card is stolen/lost?</t>
+  </si>
+  <si>
+    <t>Is it possible to transfer any amounts to another client's wallet outside the Republic?</t>
+  </si>
+  <si>
+    <t>How can I view the details of transactions made using the wallet?</t>
+  </si>
+  <si>
+    <t>How can I link any card issued by the bank to the wallet?</t>
+  </si>
+  <si>
+    <t>How can I replace my card linked to AlAhli PhoneCash wallet due to loss or damage?</t>
+  </si>
+  <si>
+    <t>How is the wallet closed?</t>
+  </si>
+  <si>
+    <t>How can contracting visa machines</t>
+  </si>
+  <si>
+    <t>What are the papers required to contract visa machines?</t>
+  </si>
+  <si>
+    <t>What is the exact time to settle amounts on the machine</t>
+  </si>
+  <si>
+    <t>What are the contracting procedures?</t>
+  </si>
+  <si>
+    <t>Is there a rental value for the machine?</t>
+  </si>
+  <si>
+    <t>What is the commission rate deducted from sales transactions?</t>
+  </si>
+  <si>
+    <t>Is it permissible to add the commission of the machine to the customer?</t>
+  </si>
+  <si>
+    <t>How to review sales movements</t>
+  </si>
+  <si>
+    <t>What are the other features of the machine?</t>
+  </si>
+  <si>
+    <t>Can the machine be linked to an individual account?</t>
+  </si>
+  <si>
+    <t>What is the time to complete the contracting process?</t>
+  </si>
+  <si>
+    <t>What are the types of cards that work on the machine?</t>
+  </si>
+  <si>
+    <t>What is the maintenance time for the machines</t>
+  </si>
+  <si>
+    <t>Can I change my user code?</t>
+  </si>
+  <si>
+    <t>How can I get the password for Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t>When can I use Al-Ahly Net service?</t>
+  </si>
+  <si>
+    <t>Can I log in for the first time through the mobile banking application?</t>
+  </si>
+  <si>
+    <t>Can I change the Login Password?</t>
+  </si>
+  <si>
+    <t>What happens if the login password is entered incorrectly?</t>
+  </si>
+  <si>
+    <t>Which of the browser services can be used?</t>
+  </si>
+  <si>
+    <t>Is the security code application service available to individuals and companies?</t>
+  </si>
+  <si>
+    <t>How can I activate the security codes application to carry out transfers and financial transactions?</t>
+  </si>
+  <si>
+    <t>Can I use the Security Tokens application and the Security Tokens device together to generate the variable PIN?</t>
+  </si>
+  <si>
+    <t>Is it possible to enable the use of the fingerprint ID on the application of the security codes?</t>
+  </si>
+  <si>
+    <t>Is the security token service available to individuals and companies?</t>
+  </si>
+  <si>
+    <t>How to obtain the security code device on Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t>How to set a PIN for the security code device on Al-Ahly Net / Al-Ahly Mobily service?</t>
+  </si>
+  <si>
+    <t>How is the OTP variable password generated through the security code device?</t>
+  </si>
+  <si>
+    <t>What services are available for the security token machine?</t>
+  </si>
+  <si>
+    <t>Is it possible to use the services of the security code device through Al-Ahly Net / Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t>How can I follow the financial transactions of the accounts?</t>
+  </si>
+  <si>
+    <t>Can I print the financial transactions of the accounts?</t>
+  </si>
+  <si>
+    <t>Is it possible to view account activity for debit transactions only or only for credit transactions?</t>
+  </si>
+  <si>
+    <t>Can I inquire about check details?</t>
+  </si>
+  <si>
+    <t>How can I get details of paid checks?</t>
+  </si>
+  <si>
+    <t>Can I know the status of checks under collection?</t>
+  </si>
+  <si>
+    <t>How can I follow up on my expenses through Al-Ahly Net / Al-Ahly Mobily service?</t>
+  </si>
+  <si>
+    <t>Can I make a budget through Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t>Can I add new categories to classify my transactions?</t>
+  </si>
+  <si>
+    <t>Can I delete categories and add others instead?</t>
+  </si>
+  <si>
+    <t>Can I delete/modify the categories added through the bank?</t>
+  </si>
+  <si>
+    <t>Can I delete the classified category of a transaction?</t>
+  </si>
+  <si>
+    <t>Can I cancel the division of the transaction into sub-transactions?</t>
+  </si>
+  <si>
+    <t>Can I view all kinds of deposits and certificates in different currencies?</t>
+  </si>
+  <si>
+    <t>How can I get detailed information about deposit accounts or certificates?</t>
+  </si>
+  <si>
+    <t>What are the details of deposits or certificates that I can get?</t>
+  </si>
+  <si>
+    <t>Can I purchase a certificate or link a deposit through the service?</t>
+  </si>
+  <si>
+    <t>Can I retrieve a certificate or break a deposit through the service?</t>
+  </si>
+  <si>
+    <t>What are the available options for modification regarding certificates and deposits?</t>
+  </si>
+  <si>
+    <t>How long does it take to implement a request to purchase / amend / retrieve a certificate or link / break a deposit through Al-Ahly Net service?</t>
+  </si>
+  <si>
+    <t>What is the multiple transfer service?</t>
+  </si>
+  <si>
+    <t>Is it possible to pay bills and charge the phone?</t>
+  </si>
+  <si>
+    <t>Can I transfer between my accounts?</t>
+  </si>
+  <si>
+    <t>Is it possible to transfer to accounts in other banks inside Egypt?</t>
+  </si>
+  <si>
+    <t>What are the currencies allowed to be dealt with through Al-Ahly Net service?</t>
+  </si>
+  <si>
+    <t>Is it possible to make transfers to other accounts inside or outside the National Bank?</t>
+  </si>
+  <si>
+    <t>Is it possible to inquire about financial transactions?</t>
+  </si>
+  <si>
+    <t>Can I transfer to an electronic wallet in another bank?</t>
+  </si>
+  <si>
+    <t>Is it possible to display all types of loans?</t>
+  </si>
+  <si>
+    <t>How can I get detailed information about loan accounts?</t>
+  </si>
+  <si>
+    <t>What are the details of the loans that I can get?</t>
+  </si>
+  <si>
+    <t>How can I print a loan account statement?</t>
+  </si>
+  <si>
+    <t>Can the system remind me of any payments or installments I have?</t>
+  </si>
+  <si>
+    <t>Can I view the details of the different investment funds?</t>
+  </si>
+  <si>
+    <t>I do not have an investment funds account, how can I create an account?</t>
+  </si>
+  <si>
+    <t>What is the primary account that is designated when opening the investment account?</t>
+  </si>
+  <si>
+    <t>What are the details of the investment funds that I can get?</t>
+  </si>
+  <si>
+    <t>Can I view the credit cards of the National Bank of Egypt through Al-Ahly Net?</t>
+  </si>
+  <si>
+    <t>Can I pay credit card dues?</t>
+  </si>
+  <si>
+    <t>What are the services available for the direct debit card through Al-Ahly Net / Al-Ahly Mobile services?</t>
+  </si>
+  <si>
+    <t>Are direct debit card services used for the original and supplementary card?</t>
+  </si>
+  <si>
+    <t>Can I view the different details of prepaid cards?</t>
+  </si>
+  <si>
+    <t>What services can I get for prepaid cards?</t>
+  </si>
+  <si>
+    <t>Can I apply for Al Ahly Bank of Egypt products?</t>
+  </si>
+  <si>
+    <t>How can I follow up on the status of a loan application that has been submitted?</t>
+  </si>
+  <si>
+    <t>Can I amend personal data through Al-Ahly Net / Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t>Does the standing instruction service allow transfers outside the client's accounts?</t>
+  </si>
+  <si>
+    <t>Can I modify or stop standing instructions that have been created?</t>
+  </si>
+  <si>
+    <t>Can I see the details of the implemented standing instructions?</t>
+  </si>
+  <si>
+    <t>Can I set a basic account to conduct financial transactions from it?</t>
+  </si>
+  <si>
+    <t>Can I open an account through Al-Ahly Net and Mobile Banking?</t>
+  </si>
+  <si>
+    <t>Can I select the new sub-account branch?</t>
+  </si>
+  <si>
+    <t>Is it possible to submit an I-Score credit inquiry request through Al-Ahly Net / Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What services are available through Al-Ahly Net and Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can I subscribe to Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can I get the password for Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I change the Login Password?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What happens if the password is entered incorrectly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Which types of browsers can be used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Does Al Ahly Mobile application support Android and IOS systems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the maximum number of users per company?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is it possible to carry out financial transactions through a preparer and reviewer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can Soft Token be used for companies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I use Al Ahly Mobile application to conduct financial transactions for companies?</t>
+  </si>
+  <si>
+    <t>Is logging in to the Mobile Banking service using the fingerprint ID or the face ID available for corporate customers?</t>
+  </si>
+  <si>
+    <t>How can I log in to the Mobile Banking Service using the Fingerprint ID / Face ID?</t>
+  </si>
+  <si>
+    <t>Can I use the face print/fingerprint together to access the Mobile Banking service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can I follow the financial transactions of the accounts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I print the financial transactions of the accounts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is it possible to view account activity for debit transactions only or only for credit transactions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can I get account details?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What account details can be obtained?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I purchase a certificate or link a deposit through the service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I view the details of the different investment funds?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I do not have an investment funds account, how can I create an account?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What is the primary account that is designated when opening the investment account?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What are the details of the investment funds that I can get?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can a transfer be made without adding a beneficiary?</t>
+  </si>
+  <si>
+    <t>Can a transfer notice be printed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is a transfer notice sent to the beneficiary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is it possible to inquire about the financial transactions that took place through Al-Ahly Net / Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What are the details of the loans that I can get?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I print a statement of account for the loan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can donations be made?</t>
+  </si>
+  <si>
+    <t>Does the standing instruction service allow transfers outside the company's accounts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I modify or stop standing instructions that have been created?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I transfer to an electronic wallet in another bank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How can the security code device be obtained on Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How to set a password for the security code device on Al-Ahly Net / Al-Ahly Mobile service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What happens if I entered the security code device PIN incorrectly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How is the OTP variable password generated through the security code device?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What services are available for the security token machine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is it possible to use the services of the security code device through Al-Ahly Net / Al-Ahly Mobile?</t>
+  </si>
+  <si>
+    <t>Is a check book issued?</t>
+  </si>
+  <si>
+    <t>How to deal on the account</t>
+  </si>
+  <si>
+    <t>Advantages of Al-Ahly for salaries on accounts</t>
+  </si>
+  <si>
+    <t>Other services are free</t>
+  </si>
+  <si>
+    <t>How to use the card</t>
+  </si>
+  <si>
+    <t>Advantages of Al-Ahly for salaries on the cards</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Subscription fees</t>
+  </si>
+  <si>
+    <t>What are the credit cards available at the National Bank of Egypt?</t>
+  </si>
+  <si>
+    <t>What are the obstacles that cause not obtaining a credit card?</t>
+  </si>
+  <si>
+    <t>How do I know the credit limit of my card?</t>
+  </si>
+  <si>
+    <t>Can I get an additional credit card? And how do I determine its credit limit?</t>
+  </si>
+  <si>
+    <t>When is the use of the card stopped?</t>
+  </si>
+  <si>
+    <t>In the event of loss or damage to the credit card, what are the procedures that the customer must follow?</t>
+  </si>
+  <si>
+    <t>How do I know when to renew the card?</t>
+  </si>
+  <si>
+    <t>What are the procedures that the customer must follow in case of forgetting the password?</t>
+  </si>
+  <si>
+    <t>What is the credit card grace period? And how is the debt returns calculated?</t>
+  </si>
+  <si>
+    <t>How can I subscribe to the electronic card statement service?</t>
+  </si>
+  <si>
+    <t>What are the possible means to pay off the credit card balance?</t>
+  </si>
+  <si>
+    <t>What is the credit card password? And what is its importance?</t>
+  </si>
+  <si>
+    <t>To whom is the prepaid card issued?</t>
+  </si>
+  <si>
+    <t>How do I get a prepaid card?</t>
+  </si>
+  <si>
+    <t>What are the documents required to issue the card?</t>
   </si>
 </sst>
 </file>
@@ -4551,7 +5343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4567,6 +5359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4649,7 +5447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4754,17 +5552,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
@@ -4788,6 +5577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6113,10 +6915,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:G553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6124,12 +6926,13 @@
     <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="77.77734375" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" customWidth="1"/>
+    <col min="6" max="6" width="97.6640625" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>596</v>
       </c>
@@ -6148,8 +6951,11 @@
       <c r="F1" s="13" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="48" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>385</v>
       </c>
@@ -6168,8 +6974,11 @@
       <c r="F2" s="14" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>385</v>
       </c>
@@ -6188,8 +6997,11 @@
       <c r="F3" s="14" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>385</v>
       </c>
@@ -6208,8 +7020,11 @@
       <c r="F4" s="14" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>385</v>
       </c>
@@ -6228,8 +7043,11 @@
       <c r="F5" s="14" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>385</v>
       </c>
@@ -6248,8 +7066,11 @@
       <c r="F6" s="14" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>396</v>
       </c>
@@ -6268,8 +7089,11 @@
       <c r="F7" s="14" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>396</v>
       </c>
@@ -6288,8 +7112,11 @@
       <c r="F8" s="14" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>396</v>
       </c>
@@ -6308,8 +7135,11 @@
       <c r="F9" s="14" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>396</v>
       </c>
@@ -6328,8 +7158,11 @@
       <c r="F10" s="14" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>396</v>
       </c>
@@ -6348,8 +7181,11 @@
       <c r="F11" s="14" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>396</v>
       </c>
@@ -6368,8 +7204,11 @@
       <c r="F12" s="14" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>396</v>
       </c>
@@ -6388,8 +7227,11 @@
       <c r="F13" s="14" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>396</v>
       </c>
@@ -6408,8 +7250,11 @@
       <c r="F14" s="14" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>396</v>
       </c>
@@ -6428,8 +7273,11 @@
       <c r="F15" s="14" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>396</v>
       </c>
@@ -6448,8 +7296,11 @@
       <c r="F16" s="14" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>396</v>
       </c>
@@ -6468,8 +7319,11 @@
       <c r="F17" s="14" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>396</v>
       </c>
@@ -6488,8 +7342,11 @@
       <c r="F18" s="14" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>396</v>
       </c>
@@ -6508,8 +7365,11 @@
       <c r="F19" s="14" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>396</v>
       </c>
@@ -6528,8 +7388,11 @@
       <c r="F20" s="14" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>396</v>
       </c>
@@ -6548,8 +7411,11 @@
       <c r="F21" s="14" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>396</v>
       </c>
@@ -6568,8 +7434,11 @@
       <c r="F22" s="14" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>396</v>
       </c>
@@ -6588,8 +7457,11 @@
       <c r="F23" s="14" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>431</v>
       </c>
@@ -6608,8 +7480,11 @@
       <c r="F24" s="14" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>431</v>
       </c>
@@ -6628,8 +7503,11 @@
       <c r="F25" s="14" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>436</v>
       </c>
@@ -6648,8 +7526,11 @@
       <c r="F26" s="14" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>436</v>
       </c>
@@ -6668,8 +7549,11 @@
       <c r="F27" s="14" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>441</v>
       </c>
@@ -6688,8 +7572,11 @@
       <c r="F28" s="14" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>441</v>
       </c>
@@ -6708,8 +7595,11 @@
       <c r="F29" s="14" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>441</v>
       </c>
@@ -6728,8 +7618,11 @@
       <c r="F30" s="14" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>441</v>
       </c>
@@ -6748,8 +7641,11 @@
       <c r="F31" s="14" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>441</v>
       </c>
@@ -6768,8 +7664,11 @@
       <c r="F32" s="14" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>441</v>
       </c>
@@ -6788,8 +7687,11 @@
       <c r="F33" s="14" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>441</v>
       </c>
@@ -6808,8 +7710,11 @@
       <c r="F34" s="14" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>441</v>
       </c>
@@ -6828,8 +7733,11 @@
       <c r="F35" s="14" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>441</v>
       </c>
@@ -6848,8 +7756,11 @@
       <c r="F36" s="14" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>460</v>
       </c>
@@ -6868,8 +7779,11 @@
       <c r="F37" s="14" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>460</v>
       </c>
@@ -6888,8 +7802,11 @@
       <c r="F38" s="14" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>460</v>
       </c>
@@ -6908,8 +7825,11 @@
       <c r="F39" s="14" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>460</v>
       </c>
@@ -6928,8 +7848,11 @@
       <c r="F40" s="14" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>460</v>
       </c>
@@ -6948,8 +7871,11 @@
       <c r="F41" s="14" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>460</v>
       </c>
@@ -6968,8 +7894,11 @@
       <c r="F42" s="14" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>460</v>
       </c>
@@ -6988,8 +7917,11 @@
       <c r="F43" s="14" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>460</v>
       </c>
@@ -7008,8 +7940,11 @@
       <c r="F44" s="14" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>460</v>
       </c>
@@ -7028,8 +7963,11 @@
       <c r="F45" s="14" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>460</v>
       </c>
@@ -7048,8 +7986,11 @@
       <c r="F46" s="14" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>460</v>
       </c>
@@ -7068,8 +8009,11 @@
       <c r="F47" s="14" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>460</v>
       </c>
@@ -7088,8 +8032,11 @@
       <c r="F48" s="14" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>460</v>
       </c>
@@ -7108,8 +8055,11 @@
       <c r="F49" s="14" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>460</v>
       </c>
@@ -7128,8 +8078,11 @@
       <c r="F50" s="14" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>460</v>
       </c>
@@ -7148,8 +8101,11 @@
       <c r="F51" s="14" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>460</v>
       </c>
@@ -7168,8 +8124,11 @@
       <c r="F52" s="14" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>460</v>
       </c>
@@ -7188,8 +8147,11 @@
       <c r="F53" s="14" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>495</v>
       </c>
@@ -7208,8 +8170,11 @@
       <c r="F54" s="14" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>495</v>
       </c>
@@ -7228,8 +8193,11 @@
       <c r="F55" s="14" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>495</v>
       </c>
@@ -7248,8 +8216,11 @@
       <c r="F56" s="14" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>495</v>
       </c>
@@ -7268,8 +8239,11 @@
       <c r="F57" s="14" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G57" s="49" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>495</v>
       </c>
@@ -7288,8 +8262,11 @@
       <c r="F58" s="14" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>495</v>
       </c>
@@ -7308,8 +8285,11 @@
       <c r="F59" s="14" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>495</v>
       </c>
@@ -7328,8 +8308,11 @@
       <c r="F60" s="14" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>495</v>
       </c>
@@ -7348,8 +8331,11 @@
       <c r="F61" s="14" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>495</v>
       </c>
@@ -7368,8 +8354,11 @@
       <c r="F62" s="14" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>495</v>
       </c>
@@ -7388,8 +8377,11 @@
       <c r="F63" s="14" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>495</v>
       </c>
@@ -7408,8 +8400,11 @@
       <c r="F64" s="14" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>495</v>
       </c>
@@ -7428,8 +8423,11 @@
       <c r="F65" s="14" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>495</v>
       </c>
@@ -7448,8 +8446,11 @@
       <c r="F66" s="14" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>495</v>
       </c>
@@ -7468,8 +8469,11 @@
       <c r="F67" s="14" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>495</v>
       </c>
@@ -7488,8 +8492,11 @@
       <c r="F68" s="14" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>495</v>
       </c>
@@ -7508,8 +8515,11 @@
       <c r="F69" s="14" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>524</v>
       </c>
@@ -7528,8 +8538,11 @@
       <c r="F70" s="14" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>524</v>
       </c>
@@ -7548,8 +8561,11 @@
       <c r="F71" s="14" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>524</v>
       </c>
@@ -7568,8 +8584,11 @@
       <c r="F72" s="14" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>524</v>
       </c>
@@ -7588,8 +8607,11 @@
       <c r="F73" s="14" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>524</v>
       </c>
@@ -7608,8 +8630,11 @@
       <c r="F74" s="14" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>524</v>
       </c>
@@ -7628,8 +8653,11 @@
       <c r="F75" s="14" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>524</v>
       </c>
@@ -7648,8 +8676,11 @@
       <c r="F76" s="14" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>524</v>
       </c>
@@ -7668,8 +8699,11 @@
       <c r="F77" s="14" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>524</v>
       </c>
@@ -7688,8 +8722,11 @@
       <c r="F78" s="14" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>524</v>
       </c>
@@ -7708,8 +8745,11 @@
       <c r="F79" s="14" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>524</v>
       </c>
@@ -7728,8 +8768,11 @@
       <c r="F80" s="14" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>524</v>
       </c>
@@ -7748,8 +8791,11 @@
       <c r="F81" s="14" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>524</v>
       </c>
@@ -7768,8 +8814,11 @@
       <c r="F82" s="14" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>524</v>
       </c>
@@ -7788,8 +8837,11 @@
       <c r="F83" s="14" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>524</v>
       </c>
@@ -7808,8 +8860,11 @@
       <c r="F84" s="14" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>555</v>
       </c>
@@ -7828,8 +8883,11 @@
       <c r="F85" s="14" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>555</v>
       </c>
@@ -7848,8 +8906,11 @@
       <c r="F86" s="14" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>555</v>
       </c>
@@ -7868,8 +8929,11 @@
       <c r="F87" s="14" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>555</v>
       </c>
@@ -7888,8 +8952,11 @@
       <c r="F88" s="14" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>555</v>
       </c>
@@ -7908,8 +8975,11 @@
       <c r="F89" s="14" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>555</v>
       </c>
@@ -7928,8 +8998,11 @@
       <c r="F90" s="14" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>555</v>
       </c>
@@ -7948,8 +9021,11 @@
       <c r="F91" s="14" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>555</v>
       </c>
@@ -7968,8 +9044,11 @@
       <c r="F92" s="14" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>555</v>
       </c>
@@ -7988,8 +9067,11 @@
       <c r="F93" s="14" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>555</v>
       </c>
@@ -8008,8 +9090,11 @@
       <c r="F94" s="14" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>555</v>
       </c>
@@ -8028,8 +9113,11 @@
       <c r="F95" s="14" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>555</v>
       </c>
@@ -8048,8 +9136,11 @@
       <c r="F96" s="14" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>555</v>
       </c>
@@ -8068,8 +9159,11 @@
       <c r="F97" s="14" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>222</v>
       </c>
@@ -8088,8 +9182,11 @@
       <c r="F98" s="10" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>222</v>
       </c>
@@ -8108,8 +9205,11 @@
       <c r="F99" s="10" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>222</v>
       </c>
@@ -8128,8 +9228,11 @@
       <c r="F100" s="10" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>222</v>
       </c>
@@ -8148,8 +9251,11 @@
       <c r="F101" s="10" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>222</v>
       </c>
@@ -8168,8 +9274,11 @@
       <c r="F102" s="10" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>222</v>
       </c>
@@ -8188,8 +9297,11 @@
       <c r="F103" s="10" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>222</v>
       </c>
@@ -8208,8 +9320,11 @@
       <c r="F104" s="10" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>222</v>
       </c>
@@ -8228,8 +9343,11 @@
       <c r="F105" s="10" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>222</v>
       </c>
@@ -8248,8 +9366,11 @@
       <c r="F106" s="10" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>222</v>
       </c>
@@ -8268,8 +9389,11 @@
       <c r="F107" s="10" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>222</v>
       </c>
@@ -8288,8 +9412,11 @@
       <c r="F108" s="10" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>222</v>
       </c>
@@ -8308,8 +9435,11 @@
       <c r="F109" s="10" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>222</v>
       </c>
@@ -8328,8 +9458,11 @@
       <c r="F110" s="10" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>222</v>
       </c>
@@ -8348,8 +9481,11 @@
       <c r="F111" s="10" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>222</v>
       </c>
@@ -8368,8 +9504,11 @@
       <c r="F112" s="10" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>222</v>
       </c>
@@ -8388,8 +9527,11 @@
       <c r="F113" s="10" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>222</v>
       </c>
@@ -8408,8 +9550,11 @@
       <c r="F114" s="10" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>222</v>
       </c>
@@ -8428,8 +9573,11 @@
       <c r="F115" s="10" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>222</v>
       </c>
@@ -8448,8 +9596,11 @@
       <c r="F116" s="10" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>222</v>
       </c>
@@ -8468,8 +9619,11 @@
       <c r="F117" s="10" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>222</v>
       </c>
@@ -8488,8 +9642,11 @@
       <c r="F118" s="10" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>222</v>
       </c>
@@ -8508,8 +9665,11 @@
       <c r="F119" s="10" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>222</v>
       </c>
@@ -8528,8 +9688,11 @@
       <c r="F120" s="10" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>222</v>
       </c>
@@ -8548,8 +9711,11 @@
       <c r="F121" s="10" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>222</v>
       </c>
@@ -8568,8 +9734,11 @@
       <c r="F122" s="10" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>222</v>
       </c>
@@ -8588,8 +9757,11 @@
       <c r="F123" s="10" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>222</v>
       </c>
@@ -8608,8 +9780,11 @@
       <c r="F124" s="10" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>222</v>
       </c>
@@ -8628,8 +9803,11 @@
       <c r="F125" s="10" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>222</v>
       </c>
@@ -8648,8 +9826,11 @@
       <c r="F126" s="10" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>222</v>
       </c>
@@ -8668,8 +9849,11 @@
       <c r="F127" s="10" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>222</v>
       </c>
@@ -8688,8 +9872,11 @@
       <c r="F128" s="10" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>222</v>
       </c>
@@ -8708,8 +9895,11 @@
       <c r="F129" s="10" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>222</v>
       </c>
@@ -8728,8 +9918,11 @@
       <c r="F130" s="10" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>222</v>
       </c>
@@ -8748,8 +9941,11 @@
       <c r="F131" s="10" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>222</v>
       </c>
@@ -8768,8 +9964,11 @@
       <c r="F132" s="10" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>222</v>
       </c>
@@ -8788,8 +9987,11 @@
       <c r="F133" s="10" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>222</v>
       </c>
@@ -8808,8 +10010,11 @@
       <c r="F134" s="10" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>222</v>
       </c>
@@ -8828,8 +10033,11 @@
       <c r="F135" s="10" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>222</v>
       </c>
@@ -8848,8 +10056,11 @@
       <c r="F136" s="10" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>222</v>
       </c>
@@ -8868,8 +10079,11 @@
       <c r="F137" s="10" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>222</v>
       </c>
@@ -8888,8 +10102,11 @@
       <c r="F138" s="10" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>222</v>
       </c>
@@ -8908,8 +10125,11 @@
       <c r="F139" s="10" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>222</v>
       </c>
@@ -8928,8 +10148,11 @@
       <c r="F140" s="10" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>222</v>
       </c>
@@ -8948,8 +10171,11 @@
       <c r="F141" s="10" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>222</v>
       </c>
@@ -8968,8 +10194,11 @@
       <c r="F142" s="10" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>222</v>
       </c>
@@ -8988,8 +10217,11 @@
       <c r="F143" s="10" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>222</v>
       </c>
@@ -9008,8 +10240,11 @@
       <c r="F144" s="10" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>222</v>
       </c>
@@ -9028,8 +10263,11 @@
       <c r="F145" s="10" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>222</v>
       </c>
@@ -9048,8 +10286,11 @@
       <c r="F146" s="10" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>222</v>
       </c>
@@ -9068,8 +10309,11 @@
       <c r="F147" s="10" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>222</v>
       </c>
@@ -9088,8 +10332,11 @@
       <c r="F148" s="10" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>222</v>
       </c>
@@ -9108,8 +10355,11 @@
       <c r="F149" s="10" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>222</v>
       </c>
@@ -9128,8 +10378,11 @@
       <c r="F150" s="10" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>222</v>
       </c>
@@ -9148,8 +10401,11 @@
       <c r="F151" s="10" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>222</v>
       </c>
@@ -9168,8 +10424,11 @@
       <c r="F152" s="10" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>222</v>
       </c>
@@ -9188,8 +10447,11 @@
       <c r="F153" s="10" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>222</v>
       </c>
@@ -9208,8 +10470,11 @@
       <c r="F154" s="10" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>222</v>
       </c>
@@ -9228,8 +10493,11 @@
       <c r="F155" s="10" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>222</v>
       </c>
@@ -9248,8 +10516,11 @@
       <c r="F156" s="22" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>222</v>
       </c>
@@ -9268,8 +10539,11 @@
       <c r="F157" s="10" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>222</v>
       </c>
@@ -9288,8 +10562,11 @@
       <c r="F158" s="10" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>222</v>
       </c>
@@ -9308,8 +10585,11 @@
       <c r="F159" s="10" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>222</v>
       </c>
@@ -9328,8 +10608,11 @@
       <c r="F160" s="10" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>222</v>
       </c>
@@ -9348,8 +10631,11 @@
       <c r="F161" s="10" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>222</v>
       </c>
@@ -9368,8 +10654,11 @@
       <c r="F162" s="10" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>222</v>
       </c>
@@ -9388,8 +10677,11 @@
       <c r="F163" s="10" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>222</v>
       </c>
@@ -9408,28 +10700,34 @@
       <c r="F164" s="10" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="43" t="s">
+      <c r="G164" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="B165" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C165" s="43" t="s">
+      <c r="C165" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D165" s="44" t="s">
+      <c r="D165" s="41" t="s">
         <v>797</v>
       </c>
-      <c r="E165" s="44" t="s">
+      <c r="E165" s="41" t="s">
         <v>932</v>
       </c>
-      <c r="F165" s="44" t="s">
+      <c r="F165" s="41" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G165" s="42" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>222</v>
       </c>
@@ -9448,8 +10746,11 @@
       <c r="F166" s="10" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>222</v>
       </c>
@@ -9468,8 +10769,11 @@
       <c r="F167" s="10" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>222</v>
       </c>
@@ -9488,8 +10792,11 @@
       <c r="F168" s="10" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>222</v>
       </c>
@@ -9508,8 +10815,11 @@
       <c r="F169" s="10" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>353</v>
       </c>
@@ -9528,8 +10838,11 @@
       <c r="F170" s="10" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>353</v>
       </c>
@@ -9548,8 +10861,11 @@
       <c r="F171" s="24" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>353</v>
       </c>
@@ -9568,8 +10884,11 @@
       <c r="F172" s="24" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>353</v>
       </c>
@@ -9588,8 +10907,11 @@
       <c r="F173" s="24" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>353</v>
       </c>
@@ -9608,8 +10930,11 @@
       <c r="F174" s="24" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>353</v>
       </c>
@@ -9628,8 +10953,11 @@
       <c r="F175" s="24" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>353</v>
       </c>
@@ -9648,8 +10976,11 @@
       <c r="F176" s="24" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>353</v>
       </c>
@@ -9668,8 +10999,11 @@
       <c r="F177" s="24" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>353</v>
       </c>
@@ -9688,8 +11022,11 @@
       <c r="F178" s="24" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>353</v>
       </c>
@@ -9708,8 +11045,11 @@
       <c r="F179" s="24" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>353</v>
       </c>
@@ -9728,8 +11068,11 @@
       <c r="F180" s="24" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>353</v>
       </c>
@@ -9748,8 +11091,11 @@
       <c r="F181" s="10" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>353</v>
       </c>
@@ -9768,8 +11114,11 @@
       <c r="F182" s="10" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>353</v>
       </c>
@@ -9788,8 +11137,11 @@
       <c r="F183" s="10" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>353</v>
       </c>
@@ -9808,8 +11160,11 @@
       <c r="F184" s="10" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>353</v>
       </c>
@@ -9828,8 +11183,11 @@
       <c r="F185" s="10" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>353</v>
       </c>
@@ -9848,8 +11206,11 @@
       <c r="F186" s="10" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>353</v>
       </c>
@@ -9868,8 +11229,11 @@
       <c r="F187" s="10" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>353</v>
       </c>
@@ -9888,8 +11252,11 @@
       <c r="F188" s="10" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
         <v>204</v>
       </c>
@@ -9908,8 +11275,11 @@
       <c r="F189" s="10" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>204</v>
       </c>
@@ -9928,8 +11298,11 @@
       <c r="F190" s="24" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>204</v>
       </c>
@@ -9948,8 +11321,11 @@
       <c r="F191" s="24" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>204</v>
       </c>
@@ -9968,8 +11344,11 @@
       <c r="F192" s="10" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>204</v>
       </c>
@@ -9988,8 +11367,11 @@
       <c r="F193" s="24" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>204</v>
       </c>
@@ -10008,8 +11390,11 @@
       <c r="F194" s="24" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="28" t="s">
         <v>0</v>
       </c>
@@ -10028,8 +11413,11 @@
       <c r="F195" s="24" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>204</v>
       </c>
@@ -10048,8 +11436,11 @@
       <c r="F196" s="30" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>204</v>
       </c>
@@ -10068,8 +11459,11 @@
       <c r="F197" s="24" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>204</v>
       </c>
@@ -10088,8 +11482,11 @@
       <c r="F198" s="24" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>204</v>
       </c>
@@ -10108,8 +11505,11 @@
       <c r="F199" s="24" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>204</v>
       </c>
@@ -10128,8 +11528,11 @@
       <c r="F200" s="10" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>204</v>
       </c>
@@ -10148,8 +11551,11 @@
       <c r="F201" s="24" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>204</v>
       </c>
@@ -10168,8 +11574,11 @@
       <c r="F202" s="10" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>204</v>
       </c>
@@ -10188,8 +11597,11 @@
       <c r="F203" s="24" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -10208,8 +11620,11 @@
       <c r="F204" s="24" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
@@ -10228,8 +11643,11 @@
       <c r="F205" s="24" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -10248,8 +11666,11 @@
       <c r="F206" s="24" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>204</v>
       </c>
@@ -10268,8 +11689,11 @@
       <c r="F207" s="24" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>204</v>
       </c>
@@ -10288,8 +11712,11 @@
       <c r="F208" s="32" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>204</v>
       </c>
@@ -10308,8 +11735,11 @@
       <c r="F209" s="24" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>204</v>
       </c>
@@ -10328,8 +11758,11 @@
       <c r="F210" s="24" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>204</v>
       </c>
@@ -10348,8 +11781,11 @@
       <c r="F211" s="24" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>204</v>
       </c>
@@ -10368,8 +11804,11 @@
       <c r="F212" s="24" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>204</v>
       </c>
@@ -10388,8 +11827,11 @@
       <c r="F213" s="24" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>204</v>
       </c>
@@ -10408,8 +11850,11 @@
       <c r="F214" s="24" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>204</v>
       </c>
@@ -10428,8 +11873,11 @@
       <c r="F215" s="10" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>204</v>
       </c>
@@ -10448,8 +11896,11 @@
       <c r="F216" s="10" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>204</v>
       </c>
@@ -10468,8 +11919,11 @@
       <c r="F217" s="33" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>204</v>
       </c>
@@ -10488,8 +11942,11 @@
       <c r="F218" s="10" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>204</v>
       </c>
@@ -10508,8 +11965,11 @@
       <c r="F219" s="10" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>204</v>
       </c>
@@ -10528,8 +11988,11 @@
       <c r="F220" s="10" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>204</v>
       </c>
@@ -10548,8 +12011,11 @@
       <c r="F221" s="10" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>204</v>
       </c>
@@ -10568,8 +12034,11 @@
       <c r="F222" s="10" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>25</v>
       </c>
@@ -10588,8 +12057,11 @@
       <c r="F223" s="14" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>25</v>
       </c>
@@ -10608,8 +12080,11 @@
       <c r="F224" s="14" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>25</v>
       </c>
@@ -10628,8 +12103,11 @@
       <c r="F225" s="14" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>25</v>
       </c>
@@ -10648,8 +12126,11 @@
       <c r="F226" s="14" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>28</v>
       </c>
@@ -10668,8 +12149,11 @@
       <c r="F227" s="14" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>28</v>
       </c>
@@ -10688,8 +12172,11 @@
       <c r="F228" s="14" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>28</v>
       </c>
@@ -10708,8 +12195,11 @@
       <c r="F229" s="14" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>28</v>
       </c>
@@ -10728,8 +12218,11 @@
       <c r="F230" s="14" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>34</v>
       </c>
@@ -10748,8 +12241,11 @@
       <c r="F231" s="14" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G231" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>34</v>
       </c>
@@ -10768,8 +12264,11 @@
       <c r="F232" s="14" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>168</v>
       </c>
@@ -10788,8 +12287,11 @@
       <c r="F233" s="35" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G233" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>168</v>
       </c>
@@ -10808,8 +12310,11 @@
       <c r="F234" s="35" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>168</v>
       </c>
@@ -10828,8 +12333,11 @@
       <c r="F235" s="14" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G235" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>168</v>
       </c>
@@ -10848,12 +12356,15 @@
       <c r="F236" s="14" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G236" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B237" s="36" t="s">
+      <c r="B237" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C237" s="23" t="s">
@@ -10865,59 +12376,71 @@
       <c r="E237" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="F237" s="38" t="s">
+      <c r="F237" s="36" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B238" s="37"/>
+      <c r="B238" s="46"/>
       <c r="C238" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="E238" s="46"/>
-      <c r="F238" s="38" t="s">
+      <c r="E238" s="43"/>
+      <c r="F238" s="36" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B239" s="37"/>
+      <c r="B239" s="46"/>
       <c r="C239" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D239" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="E239" s="46"/>
-      <c r="F239" s="38" t="s">
+      <c r="E239" s="43"/>
+      <c r="F239" s="36" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B240" s="39"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="E240" s="47"/>
-      <c r="F240" s="38" t="s">
+      <c r="E240" s="44"/>
+      <c r="F240" s="36" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="G240" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
         <v>168</v>
       </c>
@@ -10933,11 +12456,14 @@
       <c r="E241" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="F241" s="40" t="s">
+      <c r="F241" s="37" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>168</v>
       </c>
@@ -10953,11 +12479,14 @@
       <c r="E242" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="F242" s="41" t="s">
+      <c r="F242" s="38" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>168</v>
       </c>
@@ -10973,11 +12502,14 @@
       <c r="E243" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="F243" s="41" t="s">
+      <c r="F243" s="38" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>168</v>
       </c>
@@ -10993,11 +12525,14 @@
       <c r="E244" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="F244" s="41" t="s">
+      <c r="F244" s="38" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G244" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>168</v>
       </c>
@@ -11016,8 +12551,11 @@
       <c r="F245" s="14" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>168</v>
       </c>
@@ -11036,8 +12574,11 @@
       <c r="F246" s="14" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G246" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>168</v>
       </c>
@@ -11056,8 +12597,11 @@
       <c r="F247" s="14" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>50</v>
       </c>
@@ -11076,8 +12620,11 @@
       <c r="F248" s="14" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G248" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>50</v>
       </c>
@@ -11096,8 +12643,11 @@
       <c r="F249" s="14" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>50</v>
       </c>
@@ -11116,8 +12666,11 @@
       <c r="F250" s="14" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G250" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>50</v>
       </c>
@@ -11136,8 +12689,11 @@
       <c r="F251" s="14" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G251" s="49" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>50</v>
       </c>
@@ -11156,8 +12712,11 @@
       <c r="F252" s="14" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G252" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>50</v>
       </c>
@@ -11176,8 +12735,11 @@
       <c r="F253" s="14" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>50</v>
       </c>
@@ -11196,8 +12758,11 @@
       <c r="F254" s="14" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>50</v>
       </c>
@@ -11216,8 +12781,11 @@
       <c r="F255" s="14" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G255" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>50</v>
       </c>
@@ -11236,8 +12804,11 @@
       <c r="F256" s="14" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G256" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>50</v>
       </c>
@@ -11256,8 +12827,11 @@
       <c r="F257" s="14" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G257" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>50</v>
       </c>
@@ -11276,8 +12850,11 @@
       <c r="F258" s="14" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G258" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>50</v>
       </c>
@@ -11296,8 +12873,11 @@
       <c r="F259" s="14" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G259" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>50</v>
       </c>
@@ -11316,8 +12896,11 @@
       <c r="F260" s="14" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G260" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>50</v>
       </c>
@@ -11336,8 +12919,11 @@
       <c r="F261" s="14" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>70</v>
       </c>
@@ -11356,8 +12942,11 @@
       <c r="F262" s="14" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G262" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>70</v>
       </c>
@@ -11376,8 +12965,11 @@
       <c r="F263" s="14" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G263" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>70</v>
       </c>
@@ -11396,8 +12988,11 @@
       <c r="F264" s="14" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G264" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>70</v>
       </c>
@@ -11416,8 +13011,11 @@
       <c r="F265" s="14" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G265" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>70</v>
       </c>
@@ -11436,8 +13034,11 @@
       <c r="F266" s="14" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G266" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>70</v>
       </c>
@@ -11456,8 +13057,11 @@
       <c r="F267" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G267" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>70</v>
       </c>
@@ -11476,8 +13080,11 @@
       <c r="F268" s="14" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G268" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>70</v>
       </c>
@@ -11496,8 +13103,11 @@
       <c r="F269" s="14" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>70</v>
       </c>
@@ -11516,8 +13126,11 @@
       <c r="F270" s="14" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>70</v>
       </c>
@@ -11536,8 +13149,11 @@
       <c r="F271" s="14" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>70</v>
       </c>
@@ -11556,8 +13172,11 @@
       <c r="F272" s="14" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>70</v>
       </c>
@@ -11576,8 +13195,11 @@
       <c r="F273" s="14" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G273" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>70</v>
       </c>
@@ -11596,8 +13218,11 @@
       <c r="F274" s="14" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>70</v>
       </c>
@@ -11616,8 +13241,11 @@
       <c r="F275" s="14" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>96</v>
       </c>
@@ -11636,8 +13264,11 @@
       <c r="F276" s="14" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>96</v>
       </c>
@@ -11656,8 +13287,11 @@
       <c r="F277" s="14" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>96</v>
       </c>
@@ -11676,8 +13310,11 @@
       <c r="F278" s="14" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G278" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>96</v>
       </c>
@@ -11696,8 +13333,11 @@
       <c r="F279" s="14" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G279" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>96</v>
       </c>
@@ -11716,8 +13356,11 @@
       <c r="F280" s="14" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G280" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>96</v>
       </c>
@@ -11736,8 +13379,11 @@
       <c r="F281" s="14" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>96</v>
       </c>
@@ -11756,8 +13402,11 @@
       <c r="F282" s="14" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G282" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>96</v>
       </c>
@@ -11776,8 +13425,11 @@
       <c r="F283" s="14" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G283" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>96</v>
       </c>
@@ -11796,8 +13448,11 @@
       <c r="F284" s="14" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G284" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>96</v>
       </c>
@@ -11816,8 +13471,11 @@
       <c r="F285" s="14" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G285" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>96</v>
       </c>
@@ -11836,8 +13494,11 @@
       <c r="F286" s="14" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G286" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>96</v>
       </c>
@@ -11856,8 +13517,11 @@
       <c r="F287" s="14" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G287" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>96</v>
       </c>
@@ -11876,8 +13540,11 @@
       <c r="F288" s="14" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G288" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>108</v>
       </c>
@@ -11896,8 +13563,11 @@
       <c r="F289" s="14" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G289" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>108</v>
       </c>
@@ -11916,8 +13586,11 @@
       <c r="F290" s="14" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G290" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>108</v>
       </c>
@@ -11936,8 +13609,11 @@
       <c r="F291" s="14" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G291" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>108</v>
       </c>
@@ -11956,8 +13632,11 @@
       <c r="F292" s="14" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G292" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>108</v>
       </c>
@@ -11976,8 +13655,11 @@
       <c r="F293" s="14" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G293" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>108</v>
       </c>
@@ -11996,8 +13678,11 @@
       <c r="F294" s="14" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G294" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>108</v>
       </c>
@@ -12016,8 +13701,11 @@
       <c r="F295" s="14" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G295" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>108</v>
       </c>
@@ -12036,8 +13724,11 @@
       <c r="F296" s="14" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G296" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>108</v>
       </c>
@@ -12056,8 +13747,11 @@
       <c r="F297" s="14" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G297" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>108</v>
       </c>
@@ -12076,8 +13770,11 @@
       <c r="F298" s="14" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G298" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>108</v>
       </c>
@@ -12096,8 +13793,11 @@
       <c r="F299" s="14" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G299" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>108</v>
       </c>
@@ -12116,8 +13816,11 @@
       <c r="F300" s="14" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G300" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>108</v>
       </c>
@@ -12136,8 +13839,11 @@
       <c r="F301" s="14" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G301" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>108</v>
       </c>
@@ -12156,8 +13862,11 @@
       <c r="F302" s="14" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G302" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>108</v>
       </c>
@@ -12176,8 +13885,11 @@
       <c r="F303" s="14" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G303" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>108</v>
       </c>
@@ -12196,11 +13908,14 @@
       <c r="F304" s="14" t="s">
         <v>1190</v>
       </c>
+      <c r="G304" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="305" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
-      <c r="C305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
+      <c r="C305" s="39"/>
     </row>
     <row r="306" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
